--- a/Variant5.xlsx
+++ b/Variant5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408AEE2B-E0AC-47B2-89E8-0D965F302319}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9136591-4D2F-4F3F-8D5D-7B14322068D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Ім'я викладача</t>
   </si>
@@ -43,52 +43,30 @@
     <t>Історії давнього світу</t>
   </si>
   <si>
-    <t>Історія України (Середні віки)</t>
-  </si>
-  <si>
-    <t>Історія Давньої Риму</t>
-  </si>
-  <si>
-    <t>Авдиторія</t>
-  </si>
-  <si>
-    <t>Група</t>
-  </si>
-  <si>
-    <t>День</t>
-  </si>
-  <si>
-    <t>Пара</t>
-  </si>
-  <si>
-    <t>Лекційна №33</t>
-  </si>
-  <si>
-    <t>Лекційна №39</t>
-  </si>
-  <si>
-    <t>І202</t>
-  </si>
-  <si>
-    <t>Вівторок</t>
-  </si>
-  <si>
-    <t>ьиьб45</t>
-  </si>
-  <si>
-    <t>лрир53454</t>
+    <t>Історія Давньої Греції</t>
+  </si>
+  <si>
+    <t>Історія Великобританії (Середні віки)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -129,10 +107,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -435,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C3" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +428,7 @@
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,67 +438,33 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
